--- a/database/seeds/events.xlsx
+++ b/database/seeds/events.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\disparau\database\seeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kpvini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="513">
   <si>
     <t>id</t>
   </si>
@@ -1435,17 +1435,653 @@
     <t>updated_at</t>
   </si>
   <si>
+    <t>/storage/header/1.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/2.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/3.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/4.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/5.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/6.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/7.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/8.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/9.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/10.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/11.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/12.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/13.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/14.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/15.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/16.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/17.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/18.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/19.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/20.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/21.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/22.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/23.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/24.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/25.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/26.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/27.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/28.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/29.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/30.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/31.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/32.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/33.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/34.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/35.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/36.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/37.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/38.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/39.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/40.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/41.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/42.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/43.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/44.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/45.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/46.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/47.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/48.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/49.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/50.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/51.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/52.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/53.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/54.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/55.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/56.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/57.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/58.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/59.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/60.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/61.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/62.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/63.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/64.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/65.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/66.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/67.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/68.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/69.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/70.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/71.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/72.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/73.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/74.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/75.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/76.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/77.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/78.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/79.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/80.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/81.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/82.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/83.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/84.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/85.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/86.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/87.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/88.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/89.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/90.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/91.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/92.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/93.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/94.jpg</t>
+  </si>
+  <si>
+    <t>/storage/header/95.jpg</t>
+  </si>
+  <si>
     <t>2020-01-25</t>
   </si>
   <si>
-    <t>2020-01-29</t>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2020-01-18</t>
+  </si>
+  <si>
+    <t>2020-01-19</t>
+  </si>
+  <si>
+    <t>2020-02-06</t>
+  </si>
+  <si>
+    <t>2020-02-08</t>
+  </si>
+  <si>
+    <t>2020-02-09</t>
+  </si>
+  <si>
+    <t>2020-02-16</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+  </si>
+  <si>
+    <t>2020-03-20</t>
+  </si>
+  <si>
+    <t>2020-03-22</t>
+  </si>
+  <si>
+    <t>2020-03-08</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-03-24</t>
+  </si>
+  <si>
+    <t>2020-03-25</t>
+  </si>
+  <si>
+    <t>2020-03-21</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>2020-03-29</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>2020-04-03</t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
+  </si>
+  <si>
+    <t>2020-04-11</t>
+  </si>
+  <si>
+    <t>2020-04-23</t>
+  </si>
+  <si>
+    <t>2020-04-22</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-04-17</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>2020-04-24</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>2020-06-19</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-06-27</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-06-05</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-25</t>
+  </si>
+  <si>
+    <t>2020-07-29</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-08-02</t>
+  </si>
+  <si>
+    <t>2020-08-29</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-08-15</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>2020-08-19</t>
+  </si>
+  <si>
+    <t>2020-08-22</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>2020-08-23</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>2020-09-18</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
+  </si>
+  <si>
+    <t>2020-10-03</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>2020-09-03</t>
+  </si>
+  <si>
+    <t>2020-10-16</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>2020-10-09</t>
+  </si>
+  <si>
+    <t>2020-10-04</t>
+  </si>
+  <si>
+    <t>2020-10-25</t>
+  </si>
+  <si>
+    <t>2020-10-14</t>
+  </si>
+  <si>
+    <t>2020-10-11</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>2020-10-10</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>Lapangan Purna MTQ Pekanbaru</t>
+  </si>
+  <si>
+    <t>Mal SKA pekanbaru</t>
+  </si>
+  <si>
+    <t>Desa Gema, Kampar Kiri</t>
+  </si>
+  <si>
+    <t>Desa Rambah Tengan Barat</t>
+  </si>
+  <si>
+    <t>Desa Kualu Merbau</t>
+  </si>
+  <si>
+    <t>Desa Teluk Pauh</t>
+  </si>
+  <si>
+    <t>Desa Sukaraja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1462,6 +2098,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1498,9 +2140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1783,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1855,10 +2495,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>299</v>
+        <v>394</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>198</v>
@@ -1870,7 +2510,9 @@
       <c r="I2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1886,11 +2528,11 @@
       <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
-        <v>43848</v>
-      </c>
-      <c r="F3" s="5">
-        <v>43849</v>
+      <c r="E3" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>199</v>
@@ -1902,7 +2544,9 @@
       <c r="I3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1918,11 +2562,11 @@
       <c r="D4" s="2">
         <v>11</v>
       </c>
-      <c r="E4" s="5">
-        <v>43867</v>
-      </c>
-      <c r="F4" s="5">
-        <v>43869</v>
+      <c r="E4" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>200</v>
@@ -1934,7 +2578,9 @@
       <c r="I4" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1950,13 +2596,15 @@
       <c r="D5" s="2">
         <v>11</v>
       </c>
-      <c r="E5" s="5">
-        <v>43870</v>
-      </c>
-      <c r="F5" s="5">
-        <v>43877</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="E5" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>506</v>
+      </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1964,7 +2612,9 @@
       <c r="I5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1980,13 +2630,15 @@
       <c r="D6" s="2">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
-        <v>43889</v>
-      </c>
-      <c r="F6" s="5">
-        <v>43891</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="E6" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1994,7 +2646,9 @@
       <c r="I6" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2010,13 +2664,15 @@
       <c r="D7" s="2">
         <v>11</v>
       </c>
-      <c r="E7" s="5">
-        <v>43901</v>
-      </c>
-      <c r="F7" s="5">
-        <v>43905</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="E7" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2024,7 +2680,9 @@
       <c r="I7" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2040,13 +2698,15 @@
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="5">
-        <v>43910</v>
-      </c>
-      <c r="F8" s="5">
-        <v>43912</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="E8" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2054,7 +2714,9 @@
       <c r="I8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2070,13 +2732,15 @@
       <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
-        <v>43898</v>
-      </c>
-      <c r="F9" s="5">
-        <v>43899</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="E9" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>509</v>
+      </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2084,7 +2748,9 @@
       <c r="I9" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2100,13 +2766,15 @@
       <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="5">
-        <v>43914</v>
-      </c>
-      <c r="F10" s="5">
-        <v>43915</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="E10" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>510</v>
+      </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2114,7 +2782,9 @@
       <c r="I10" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2130,13 +2800,15 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
-        <v>43911</v>
-      </c>
-      <c r="F11" s="5">
-        <v>43913</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="E11" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2144,7 +2816,9 @@
       <c r="I11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2160,13 +2834,15 @@
       <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="5">
-        <v>43919</v>
-      </c>
-      <c r="F12" s="5">
-        <v>43920</v>
-      </c>
-      <c r="G12" s="2"/>
+      <c r="E12" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>511</v>
+      </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2174,7 +2850,9 @@
       <c r="I12" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2190,11 +2868,11 @@
       <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="5">
-        <v>43915</v>
-      </c>
-      <c r="F13" s="5">
-        <v>43924</v>
+      <c r="E13" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2">
@@ -2204,7 +2882,9 @@
       <c r="I13" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2220,11 +2900,11 @@
       <c r="D14" s="2">
         <v>11</v>
       </c>
-      <c r="E14" s="5">
-        <v>43924</v>
-      </c>
-      <c r="F14" s="5">
-        <v>43924</v>
+      <c r="E14" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
@@ -2234,7 +2914,9 @@
       <c r="I14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2250,11 +2932,11 @@
       <c r="D15" s="2">
         <v>11</v>
       </c>
-      <c r="E15" s="5">
-        <v>43930</v>
-      </c>
-      <c r="F15" s="5">
-        <v>43930</v>
+      <c r="E15" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>417</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2">
@@ -2264,7 +2946,9 @@
       <c r="I15" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2280,11 +2964,11 @@
       <c r="D16" s="2">
         <v>11</v>
       </c>
-      <c r="E16" s="5">
-        <v>43932</v>
-      </c>
-      <c r="F16" s="5">
-        <v>43932</v>
+      <c r="E16" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2">
@@ -2294,7 +2978,9 @@
       <c r="I16" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2310,11 +2996,11 @@
       <c r="D17" s="2">
         <v>11</v>
       </c>
-      <c r="E17" s="5">
-        <v>43944</v>
-      </c>
-      <c r="F17" s="5">
-        <v>43944</v>
+      <c r="E17" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2">
@@ -2324,7 +3010,9 @@
       <c r="I17" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2340,11 +3028,11 @@
       <c r="D18" s="2">
         <v>6</v>
       </c>
-      <c r="E18" s="5">
-        <v>43944</v>
-      </c>
-      <c r="F18" s="5">
-        <v>43944</v>
+      <c r="E18" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2">
@@ -2354,7 +3042,9 @@
       <c r="I18" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2370,11 +3060,11 @@
       <c r="D19" s="2">
         <v>7</v>
       </c>
-      <c r="E19" s="5">
-        <v>43943</v>
-      </c>
-      <c r="F19" s="5">
-        <v>43944</v>
+      <c r="E19" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2">
@@ -2384,7 +3074,9 @@
       <c r="I19" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2400,11 +3092,11 @@
       <c r="D20" s="2">
         <v>7</v>
       </c>
-      <c r="E20" s="5">
-        <v>43948</v>
-      </c>
-      <c r="F20" s="5">
-        <v>43955</v>
+      <c r="E20" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
@@ -2414,7 +3106,9 @@
       <c r="I20" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2430,11 +3124,11 @@
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E21" s="5">
-        <v>43944</v>
-      </c>
-      <c r="F21" s="5">
-        <v>43944</v>
+      <c r="E21" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2">
@@ -2444,7 +3138,9 @@
       <c r="I21" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2460,11 +3156,11 @@
       <c r="D22" s="2">
         <v>12</v>
       </c>
-      <c r="E22" s="5">
-        <v>43938</v>
-      </c>
-      <c r="F22" s="5">
-        <v>43938</v>
+      <c r="E22" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2">
@@ -2474,7 +3170,9 @@
       <c r="I22" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2490,11 +3188,11 @@
       <c r="D23" s="2">
         <v>5</v>
       </c>
-      <c r="E23" s="5">
-        <v>43930</v>
-      </c>
-      <c r="F23" s="5">
-        <v>43930</v>
+      <c r="E23" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>417</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2">
@@ -2504,7 +3202,9 @@
       <c r="I23" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2520,11 +3220,11 @@
       <c r="D24" s="2">
         <v>5</v>
       </c>
-      <c r="E24" s="5">
-        <v>43941</v>
-      </c>
-      <c r="F24" s="5">
-        <v>43941</v>
+      <c r="E24" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>424</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2">
@@ -2534,7 +3234,9 @@
       <c r="I24" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2550,11 +3252,11 @@
       <c r="D25" s="2">
         <v>5</v>
       </c>
-      <c r="E25" s="5">
-        <v>43945</v>
-      </c>
-      <c r="F25" s="5">
-        <v>43945</v>
+      <c r="E25" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2">
@@ -2564,7 +3266,9 @@
       <c r="I25" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2580,11 +3284,11 @@
       <c r="D26" s="2">
         <v>6</v>
       </c>
-      <c r="E26" s="5">
-        <v>43981</v>
-      </c>
-      <c r="F26" s="5">
-        <v>43981</v>
+      <c r="E26" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2">
@@ -2594,7 +3298,9 @@
       <c r="I26" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2610,11 +3316,11 @@
       <c r="D27" s="2">
         <v>10</v>
       </c>
-      <c r="E27" s="5">
-        <v>43973</v>
-      </c>
-      <c r="F27" s="5">
-        <v>43974</v>
+      <c r="E27" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2">
@@ -2624,7 +3330,9 @@
       <c r="I27" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2640,11 +3348,11 @@
       <c r="D28" s="2">
         <v>1</v>
       </c>
-      <c r="E28" s="5">
-        <v>43978</v>
-      </c>
-      <c r="F28" s="5">
-        <v>43978</v>
+      <c r="E28" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2">
@@ -2654,7 +3362,9 @@
       <c r="I28" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2670,11 +3380,11 @@
       <c r="D29" s="2">
         <v>8</v>
       </c>
-      <c r="E29" s="5">
-        <v>43973</v>
-      </c>
-      <c r="F29" s="5">
-        <v>43974</v>
+      <c r="E29" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
@@ -2684,7 +3394,9 @@
       <c r="I29" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2700,11 +3412,11 @@
       <c r="D30" s="2">
         <v>9</v>
       </c>
-      <c r="E30" s="5">
-        <v>43977</v>
-      </c>
-      <c r="F30" s="5">
-        <v>43977</v>
+      <c r="E30" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2">
@@ -2714,7 +3426,9 @@
       <c r="I30" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2730,11 +3444,11 @@
       <c r="D31" s="2">
         <v>11</v>
       </c>
-      <c r="E31" s="5">
-        <v>44004</v>
-      </c>
-      <c r="F31" s="5">
-        <v>44004</v>
+      <c r="E31" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2">
@@ -2744,7 +3458,9 @@
       <c r="I31" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2760,11 +3476,11 @@
       <c r="D32" s="2">
         <v>6</v>
       </c>
-      <c r="E32" s="5">
-        <v>43988</v>
-      </c>
-      <c r="F32" s="5">
-        <v>43988</v>
+      <c r="E32" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2">
@@ -2774,7 +3490,9 @@
       <c r="I32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2790,11 +3508,11 @@
       <c r="D33" s="2">
         <v>6</v>
       </c>
-      <c r="E33" s="5">
-        <v>44001</v>
-      </c>
-      <c r="F33" s="5">
-        <v>44001</v>
+      <c r="E33" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2">
@@ -2804,7 +3522,9 @@
       <c r="I33" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2820,11 +3540,11 @@
       <c r="D34" s="2">
         <v>10</v>
       </c>
-      <c r="E34" s="5">
-        <v>44002</v>
-      </c>
-      <c r="F34" s="5">
-        <v>44002</v>
+      <c r="E34" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2">
@@ -2834,7 +3554,9 @@
       <c r="I34" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2850,11 +3572,11 @@
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="5">
-        <v>43993</v>
-      </c>
-      <c r="F35" s="5">
-        <v>43993</v>
+      <c r="E35" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2">
@@ -2864,7 +3586,9 @@
       <c r="I35" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2880,11 +3604,11 @@
       <c r="D36" s="2">
         <v>1</v>
       </c>
-      <c r="E36" s="5">
-        <v>44007</v>
-      </c>
-      <c r="F36" s="5">
-        <v>44009</v>
+      <c r="E36" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2">
@@ -2894,7 +3618,9 @@
       <c r="I36" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2910,11 +3636,11 @@
       <c r="D37" s="2">
         <v>2</v>
       </c>
-      <c r="E37" s="5">
-        <v>44004</v>
-      </c>
-      <c r="F37" s="5">
-        <v>44006</v>
+      <c r="E37" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2">
@@ -2924,7 +3650,9 @@
       <c r="I37" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2940,11 +3668,11 @@
       <c r="D38" s="2">
         <v>2</v>
       </c>
-      <c r="E38" s="5">
-        <v>43993</v>
-      </c>
-      <c r="F38" s="5">
-        <v>43993</v>
+      <c r="E38" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2">
@@ -2954,7 +3682,9 @@
       <c r="I38" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2970,11 +3700,11 @@
       <c r="D39" s="2">
         <v>9</v>
       </c>
-      <c r="E39" s="5">
-        <v>44001</v>
-      </c>
-      <c r="F39" s="5">
-        <v>44001</v>
+      <c r="E39" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2">
@@ -2984,7 +3714,9 @@
       <c r="I39" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="J39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,11 +3732,11 @@
       <c r="D40" s="2">
         <v>5</v>
       </c>
-      <c r="E40" s="5">
-        <v>43987</v>
-      </c>
-      <c r="F40" s="5">
-        <v>43987</v>
+      <c r="E40" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2">
@@ -3014,7 +3746,9 @@
       <c r="I40" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3030,11 +3764,11 @@
       <c r="D41" s="2">
         <v>5</v>
       </c>
-      <c r="E41" s="5">
-        <v>43993</v>
-      </c>
-      <c r="F41" s="5">
-        <v>43993</v>
+      <c r="E41" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2">
@@ -3044,7 +3778,9 @@
       <c r="I41" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3060,11 +3796,11 @@
       <c r="D42" s="2">
         <v>5</v>
       </c>
-      <c r="E42" s="5">
-        <v>43997</v>
-      </c>
-      <c r="F42" s="5">
-        <v>43997</v>
+      <c r="E42" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2">
@@ -3074,7 +3810,9 @@
       <c r="I42" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="J42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3090,11 +3828,11 @@
       <c r="D43" s="2">
         <v>5</v>
       </c>
-      <c r="E43" s="5">
-        <v>43999</v>
-      </c>
-      <c r="F43" s="5">
-        <v>43999</v>
+      <c r="E43" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2">
@@ -3104,7 +3842,9 @@
       <c r="I43" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="J43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3120,11 +3860,11 @@
       <c r="D44" s="2">
         <v>11</v>
       </c>
-      <c r="E44" s="5">
-        <v>44006</v>
-      </c>
-      <c r="F44" s="5">
-        <v>44008</v>
+      <c r="E44" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2">
@@ -3134,7 +3874,9 @@
       <c r="I44" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3150,11 +3892,11 @@
       <c r="D45" s="2">
         <v>11</v>
       </c>
-      <c r="E45" s="5">
-        <v>44014</v>
-      </c>
-      <c r="F45" s="5">
-        <v>44014</v>
+      <c r="E45" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2">
@@ -3164,7 +3906,9 @@
       <c r="I45" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="J45" s="2"/>
+      <c r="J45" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3180,11 +3924,11 @@
       <c r="D46" s="2">
         <v>6</v>
       </c>
-      <c r="E46" s="5">
-        <v>44020</v>
-      </c>
-      <c r="F46" s="5">
-        <v>44020</v>
+      <c r="E46" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2">
@@ -3194,7 +3938,9 @@
       <c r="I46" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3210,11 +3956,11 @@
       <c r="D47" s="2">
         <v>1</v>
       </c>
-      <c r="E47" s="5">
-        <v>44038</v>
-      </c>
-      <c r="F47" s="5">
-        <v>44038</v>
+      <c r="E47" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2">
@@ -3224,7 +3970,9 @@
       <c r="I47" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="J47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3240,11 +3988,11 @@
       <c r="D48" s="2">
         <v>1</v>
       </c>
-      <c r="E48" s="5">
-        <v>44014</v>
-      </c>
-      <c r="F48" s="5">
-        <v>44016</v>
+      <c r="E48" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2">
@@ -3254,7 +4002,9 @@
       <c r="I48" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3270,11 +4020,11 @@
       <c r="D49" s="2">
         <v>1</v>
       </c>
-      <c r="E49" s="5">
-        <v>44028</v>
-      </c>
-      <c r="F49" s="5">
-        <v>44030</v>
+      <c r="E49" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2">
@@ -3284,7 +4034,9 @@
       <c r="I49" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="J49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3300,11 +4052,11 @@
       <c r="D50" s="2">
         <v>1</v>
       </c>
-      <c r="E50" s="5">
-        <v>44035</v>
-      </c>
-      <c r="F50" s="5">
-        <v>44037</v>
+      <c r="E50" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>450</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2">
@@ -3314,7 +4066,9 @@
       <c r="I50" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3330,11 +4084,11 @@
       <c r="D51" s="2">
         <v>3</v>
       </c>
-      <c r="E51" s="5">
-        <v>44041</v>
-      </c>
-      <c r="F51" s="5">
-        <v>44042</v>
+      <c r="E51" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2">
@@ -3344,7 +4098,9 @@
       <c r="I51" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="J51" s="2"/>
+      <c r="J51" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3360,11 +4116,11 @@
       <c r="D52" s="2">
         <v>9</v>
       </c>
-      <c r="E52" s="5">
-        <v>44017</v>
-      </c>
-      <c r="F52" s="5">
-        <v>44017</v>
+      <c r="E52" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2">
@@ -3374,7 +4130,9 @@
       <c r="I52" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3390,11 +4148,11 @@
       <c r="D53" s="2">
         <v>9</v>
       </c>
-      <c r="E53" s="5">
-        <v>44018</v>
-      </c>
-      <c r="F53" s="5">
-        <v>44018</v>
+      <c r="E53" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2">
@@ -3404,7 +4162,9 @@
       <c r="I53" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="J53" s="2"/>
+      <c r="J53" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3420,11 +4180,11 @@
       <c r="D54" s="2">
         <v>11</v>
       </c>
-      <c r="E54" s="5">
-        <v>44044</v>
-      </c>
-      <c r="F54" s="5">
-        <v>44045</v>
+      <c r="E54" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2">
@@ -3434,7 +4194,9 @@
       <c r="I54" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="J54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3450,11 +4212,11 @@
       <c r="D55" s="2">
         <v>6</v>
       </c>
-      <c r="E55" s="5">
-        <v>44072</v>
-      </c>
-      <c r="F55" s="5">
-        <v>44072</v>
+      <c r="E55" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2">
@@ -3464,7 +4226,9 @@
       <c r="I55" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="J55" s="2"/>
+      <c r="J55" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3480,11 +4244,11 @@
       <c r="D56" s="2">
         <v>3</v>
       </c>
-      <c r="E56" s="5">
-        <v>44072</v>
-      </c>
-      <c r="F56" s="5">
-        <v>44072</v>
+      <c r="E56" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2">
@@ -3494,7 +4258,9 @@
       <c r="I56" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3510,11 +4276,11 @@
       <c r="D57" s="2">
         <v>3</v>
       </c>
-      <c r="E57" s="5">
-        <v>44052</v>
-      </c>
-      <c r="F57" s="5">
-        <v>44053</v>
+      <c r="E57" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2">
@@ -3524,7 +4290,9 @@
       <c r="I57" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J57" s="2"/>
+      <c r="J57" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3540,11 +4308,11 @@
       <c r="D58" s="2">
         <v>1</v>
       </c>
-      <c r="E58" s="5">
-        <v>44058</v>
-      </c>
-      <c r="F58" s="5">
-        <v>44060</v>
+      <c r="E58" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2">
@@ -3554,7 +4322,9 @@
       <c r="I58" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="J58" s="2"/>
+      <c r="J58" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3570,11 +4340,11 @@
       <c r="D59" s="2">
         <v>1</v>
       </c>
-      <c r="E59" s="5">
-        <v>44049</v>
-      </c>
-      <c r="F59" s="5">
-        <v>44051</v>
+      <c r="E59" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2">
@@ -3584,7 +4354,9 @@
       <c r="I59" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="J59" s="2"/>
+      <c r="J59" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3600,11 +4372,11 @@
       <c r="D60" s="2">
         <v>1</v>
       </c>
-      <c r="E60" s="5">
-        <v>44062</v>
-      </c>
-      <c r="F60" s="5">
-        <v>44065</v>
+      <c r="E60" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>465</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2">
@@ -3614,7 +4386,9 @@
       <c r="I60" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="J60" s="2"/>
+      <c r="J60" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3630,11 +4404,11 @@
       <c r="D61" s="2">
         <v>8</v>
       </c>
-      <c r="E61" s="5">
-        <v>44068</v>
-      </c>
-      <c r="F61" s="5">
-        <v>44068</v>
+      <c r="E61" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>466</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2">
@@ -3644,7 +4418,9 @@
       <c r="I61" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="J61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3660,11 +4436,11 @@
       <c r="D62" s="2">
         <v>8</v>
       </c>
-      <c r="E62" s="5">
-        <v>44066</v>
-      </c>
-      <c r="F62" s="5">
-        <v>44066</v>
+      <c r="E62" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2">
@@ -3674,7 +4450,9 @@
       <c r="I62" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J62" s="2"/>
+      <c r="J62" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3690,11 +4468,11 @@
       <c r="D63" s="2">
         <v>1</v>
       </c>
-      <c r="E63" s="5">
-        <v>44050</v>
-      </c>
-      <c r="F63" s="5">
-        <v>44051</v>
+      <c r="E63" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2">
@@ -3704,7 +4482,9 @@
       <c r="I63" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="J63" s="2"/>
+      <c r="J63" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3720,11 +4500,11 @@
       <c r="D64" s="2">
         <v>5</v>
       </c>
-      <c r="E64" s="5">
-        <v>44085</v>
-      </c>
-      <c r="F64" s="5">
-        <v>44085</v>
+      <c r="E64" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>469</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2">
@@ -3734,7 +4514,9 @@
       <c r="I64" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="J64" s="2"/>
+      <c r="J64" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3750,11 +4532,11 @@
       <c r="D65" s="2">
         <v>6</v>
       </c>
-      <c r="E65" s="5">
-        <v>44092</v>
-      </c>
-      <c r="F65" s="5">
-        <v>44095</v>
+      <c r="E65" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2">
@@ -3764,7 +4546,9 @@
       <c r="I65" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="J65" s="2"/>
+      <c r="J65" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3780,11 +4564,11 @@
       <c r="D66" s="2">
         <v>3</v>
       </c>
-      <c r="E66" s="5">
-        <v>44090</v>
-      </c>
-      <c r="F66" s="5">
-        <v>44090</v>
+      <c r="E66" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2">
@@ -3794,7 +4578,9 @@
       <c r="I66" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="J66" s="2"/>
+      <c r="J66" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3810,11 +4596,11 @@
       <c r="D67" s="2">
         <v>8</v>
       </c>
-      <c r="E67" s="5">
-        <v>44081</v>
-      </c>
-      <c r="F67" s="5">
-        <v>44081</v>
+      <c r="E67" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2">
@@ -3824,7 +4610,9 @@
       <c r="I67" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3840,11 +4628,11 @@
       <c r="D68" s="2">
         <v>5</v>
       </c>
-      <c r="E68" s="5">
-        <v>44091</v>
-      </c>
-      <c r="F68" s="5">
-        <v>44091</v>
+      <c r="E68" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>474</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2">
@@ -3854,7 +4642,9 @@
       <c r="I68" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="J68" s="2"/>
+      <c r="J68" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3870,11 +4660,11 @@
       <c r="D69" s="2">
         <v>11</v>
       </c>
-      <c r="E69" s="5">
-        <v>44107</v>
-      </c>
-      <c r="F69" s="5">
-        <v>44109</v>
+      <c r="E69" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>476</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2">
@@ -3884,7 +4674,9 @@
       <c r="I69" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J69" s="2"/>
+      <c r="J69" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3900,11 +4692,11 @@
       <c r="D70" s="2">
         <v>11</v>
       </c>
-      <c r="E70" s="5">
-        <v>44095</v>
-      </c>
-      <c r="F70" s="5">
-        <v>44099</v>
+      <c r="E70" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2">
@@ -3914,7 +4706,9 @@
       <c r="I70" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="J70" s="2"/>
+      <c r="J70" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3930,11 +4724,11 @@
       <c r="D71" s="2">
         <v>6</v>
       </c>
-      <c r="E71" s="5">
-        <v>44077</v>
-      </c>
-      <c r="F71" s="5">
-        <v>44077</v>
+      <c r="E71" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>478</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2">
@@ -3944,7 +4738,9 @@
       <c r="I71" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J71" s="2"/>
+      <c r="J71" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3958,11 +4754,11 @@
       <c r="D72" s="2">
         <v>6</v>
       </c>
-      <c r="E72" s="5">
-        <v>44120</v>
-      </c>
-      <c r="F72" s="5">
-        <v>44121</v>
+      <c r="E72" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2">
@@ -3972,7 +4768,9 @@
       <c r="I72" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="J72" s="2"/>
+      <c r="J72" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3988,11 +4786,11 @@
       <c r="D73" s="2">
         <v>7</v>
       </c>
-      <c r="E73" s="5">
-        <v>44113</v>
-      </c>
-      <c r="F73" s="5">
-        <v>44113</v>
+      <c r="E73" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>481</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2">
@@ -4002,7 +4800,9 @@
       <c r="I73" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="J73" s="2"/>
+      <c r="J73" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4016,11 +4816,11 @@
       <c r="D74" s="2">
         <v>1</v>
       </c>
-      <c r="E74" s="5">
-        <v>44107</v>
-      </c>
-      <c r="F74" s="5">
-        <v>44108</v>
+      <c r="E74" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>482</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2">
@@ -4030,7 +4830,9 @@
       <c r="I74" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J74" s="2"/>
+      <c r="J74" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4046,11 +4848,11 @@
       <c r="D75" s="2">
         <v>2</v>
       </c>
-      <c r="E75" s="5">
-        <v>44129</v>
-      </c>
-      <c r="F75" s="5">
-        <v>44129</v>
+      <c r="E75" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>483</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2">
@@ -4060,7 +4862,9 @@
       <c r="I75" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="J75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4076,11 +4880,11 @@
       <c r="D76" s="2">
         <v>8</v>
       </c>
-      <c r="E76" s="5">
-        <v>44107</v>
-      </c>
-      <c r="F76" s="5">
-        <v>44108</v>
+      <c r="E76" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>482</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2">
@@ -4090,7 +4894,9 @@
       <c r="I76" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J76" s="2"/>
+      <c r="J76" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4106,11 +4912,11 @@
       <c r="D77" s="2">
         <v>8</v>
       </c>
-      <c r="E77" s="5">
-        <v>44118</v>
-      </c>
-      <c r="F77" s="5">
-        <v>44118</v>
+      <c r="E77" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2">
@@ -4120,7 +4926,9 @@
       <c r="I77" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="J77" s="2"/>
+      <c r="J77" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4136,11 +4944,11 @@
       <c r="D78" s="2">
         <v>9</v>
       </c>
-      <c r="E78" s="5">
-        <v>44108</v>
-      </c>
-      <c r="F78" s="5">
-        <v>44109</v>
+      <c r="E78" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>476</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2">
@@ -4150,7 +4958,9 @@
       <c r="I78" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J78" s="2"/>
+      <c r="J78" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4166,11 +4976,11 @@
       <c r="D79" s="2">
         <v>9</v>
       </c>
-      <c r="E79" s="5">
-        <v>44115</v>
-      </c>
-      <c r="F79" s="5">
-        <v>44117</v>
+      <c r="E79" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>486</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2">
@@ -4180,7 +4990,9 @@
       <c r="I79" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="J79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4196,11 +5008,11 @@
       <c r="D80" s="2">
         <v>9</v>
       </c>
-      <c r="E80" s="5">
-        <v>44123</v>
-      </c>
-      <c r="F80" s="5">
-        <v>44124</v>
+      <c r="E80" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>488</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2">
@@ -4210,7 +5022,9 @@
       <c r="I80" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="J80" s="2"/>
+      <c r="J80" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,11 +5040,11 @@
       <c r="D81" s="2">
         <v>9</v>
       </c>
-      <c r="E81" s="5">
-        <v>44111</v>
-      </c>
-      <c r="F81" s="5">
-        <v>44118</v>
+      <c r="E81" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2">
@@ -4240,7 +5054,9 @@
       <c r="I81" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J81" s="2"/>
+      <c r="J81" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4256,11 +5072,11 @@
       <c r="D82" s="2">
         <v>5</v>
       </c>
-      <c r="E82" s="5">
-        <v>44114</v>
-      </c>
-      <c r="F82" s="5">
-        <v>44114</v>
+      <c r="E82" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2">
@@ -4270,7 +5086,9 @@
       <c r="I82" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="J82" s="2"/>
+      <c r="J82" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4286,11 +5104,11 @@
       <c r="D83" s="2">
         <v>5</v>
       </c>
-      <c r="E83" s="5">
-        <v>44116</v>
-      </c>
-      <c r="F83" s="5">
-        <v>44116</v>
+      <c r="E83" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2">
@@ -4300,7 +5118,9 @@
       <c r="I83" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4316,11 +5136,11 @@
       <c r="D84" s="2">
         <v>5</v>
       </c>
-      <c r="E84" s="5">
-        <v>44127</v>
-      </c>
-      <c r="F84" s="5">
-        <v>44129</v>
+      <c r="E84" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>483</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2">
@@ -4330,7 +5150,9 @@
       <c r="I84" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="J84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4346,11 +5168,11 @@
       <c r="D85" s="2">
         <v>5</v>
       </c>
-      <c r="E85" s="5">
-        <v>44135</v>
-      </c>
-      <c r="F85" s="5">
-        <v>44135</v>
+      <c r="E85" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2">
@@ -4360,7 +5182,9 @@
       <c r="I85" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="J85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4376,11 +5200,11 @@
       <c r="D86" s="2">
         <v>6</v>
       </c>
-      <c r="E86" s="5">
-        <v>44163</v>
-      </c>
-      <c r="F86" s="5">
-        <v>44164</v>
+      <c r="E86" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2">
@@ -4390,7 +5214,9 @@
       <c r="I86" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="K86" s="2"/>
     </row>
     <row r="87" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4406,11 +5232,11 @@
       <c r="D87" s="2">
         <v>1</v>
       </c>
-      <c r="E87" s="5">
-        <v>44149</v>
-      </c>
-      <c r="F87" s="5">
-        <v>44150</v>
+      <c r="E87" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2">
@@ -4420,7 +5246,9 @@
       <c r="I87" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="J87" s="2"/>
+      <c r="J87" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4436,11 +5264,11 @@
       <c r="D88" s="2">
         <v>2</v>
       </c>
-      <c r="E88" s="5">
-        <v>44160</v>
-      </c>
-      <c r="F88" s="5">
-        <v>44160</v>
+      <c r="E88" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>498</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2">
@@ -4450,7 +5278,9 @@
       <c r="I88" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="J88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4466,11 +5296,11 @@
       <c r="D89" s="2">
         <v>8</v>
       </c>
-      <c r="E89" s="5">
-        <v>44155</v>
-      </c>
-      <c r="F89" s="5">
-        <v>44155</v>
+      <c r="E89" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2">
@@ -4480,7 +5310,9 @@
       <c r="I89" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4496,11 +5328,11 @@
       <c r="D90" s="2">
         <v>5</v>
       </c>
-      <c r="E90" s="5">
-        <v>44162</v>
-      </c>
-      <c r="F90" s="5">
-        <v>44164</v>
+      <c r="E90" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2">
@@ -4510,7 +5342,9 @@
       <c r="I90" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="J90" s="2"/>
+      <c r="J90" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4526,11 +5360,11 @@
       <c r="D91" s="2">
         <v>6</v>
       </c>
-      <c r="E91" s="5">
-        <v>44174</v>
-      </c>
-      <c r="F91" s="5">
-        <v>44174</v>
+      <c r="E91" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>501</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2">
@@ -4540,7 +5374,9 @@
       <c r="I91" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="J91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4556,11 +5392,11 @@
       <c r="D92" s="2">
         <v>1</v>
       </c>
-      <c r="E92" s="5">
-        <v>44184</v>
-      </c>
-      <c r="F92" s="5">
-        <v>44184</v>
+      <c r="E92" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2">
@@ -4570,7 +5406,9 @@
       <c r="I92" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J92" s="2"/>
+      <c r="J92" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4586,11 +5424,11 @@
       <c r="D93" s="2">
         <v>7</v>
       </c>
-      <c r="E93" s="5">
-        <v>44185</v>
-      </c>
-      <c r="F93" s="5">
-        <v>44185</v>
+      <c r="E93" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>503</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2">
@@ -4600,7 +5438,9 @@
       <c r="I93" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J93" s="2"/>
+      <c r="J93" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="K93" s="2"/>
     </row>
     <row r="94" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4616,11 +5456,11 @@
       <c r="D94" s="2">
         <v>5</v>
       </c>
-      <c r="E94" s="5">
-        <v>44171</v>
-      </c>
-      <c r="F94" s="5">
-        <v>44171</v>
+      <c r="E94" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>504</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2">
@@ -4630,7 +5470,9 @@
       <c r="I94" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="J94" s="2"/>
+      <c r="J94" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4646,11 +5488,11 @@
       <c r="D95" s="2">
         <v>5</v>
       </c>
-      <c r="E95" s="5">
-        <v>44184</v>
-      </c>
-      <c r="F95" s="5">
-        <v>44184</v>
+      <c r="E95" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2">
@@ -4660,7 +5502,9 @@
       <c r="I95" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="J95" s="2"/>
+      <c r="J95" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="K95" s="2"/>
     </row>
     <row r="96" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4676,11 +5520,11 @@
       <c r="D96" s="2">
         <v>5</v>
       </c>
-      <c r="E96" s="5">
-        <v>44187</v>
-      </c>
-      <c r="F96" s="5">
-        <v>44187</v>
+      <c r="E96" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2">
@@ -4690,7 +5534,9 @@
       <c r="I96" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="J96" s="2"/>
+      <c r="J96" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="K96" s="2"/>
     </row>
   </sheetData>

--- a/database/seeds/events.xlsx
+++ b/database/seeds/events.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kpvini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\disparau\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2080,7 +2080,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2423,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2">
-        <f t="shared" ref="H67:H96" si="1">D67</f>
+        <f t="shared" ref="H67:H97" si="1">D67</f>
         <v>8</v>
       </c>
       <c r="I67" s="2" t="s">
